--- a/environments/env1/DMA-INPUT-FILE.xlsx
+++ b/environments/env1/DMA-INPUT-FILE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26208"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-khareayush\Desktop\DMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1085122\Documents\Scripts\Microsoft\10.10.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A25011-B241-4DA1-89E5-151A197227C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41564E92-A7BB-4333-9553-2AD122D0E250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input-to-dma-for-assessment" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>Computer Name</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>DBPort</t>
+  </si>
+  <si>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>MSSQLSERVER</t>
   </si>
   <si>
     <t>Microsoft SQL Server 2017</t>
@@ -195,6 +201,9 @@
     <t>SQL Server Authentication</t>
   </si>
   <si>
+    <t>testuser</t>
+  </si>
+  <si>
     <t>Microsoft SQL Server 2019</t>
   </si>
   <si>
@@ -214,25 +223,13 @@
   </si>
   <si>
     <t>Microsoft SQL Server 2008</t>
-  </si>
-  <si>
-    <t>sqladmin</t>
-  </si>
-  <si>
-    <t>Mail@123</t>
-  </si>
-  <si>
-    <t>MSSQLSERVER</t>
-  </si>
-  <si>
-    <t>Sourceiycu5uzhk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -335,45 +332,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -381,13 +359,6 @@
         <top style="medium">
           <color theme="1"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -429,7 +400,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AD2" totalsRowShown="0">
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Computer Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Computer Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SQL Server Instance Name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SQL Server Product Name"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SQL Server Version"/>
@@ -465,7 +436,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:A8" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:A8" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
   <autoFilter ref="A1:A8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SQL Server Product Name"/>
@@ -775,26 +746,26 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7265625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.81640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="27.81640625" customWidth="1"/>
-    <col min="28" max="28" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.85546875" customWidth="1"/>
+    <col min="28" max="28" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -886,51 +857,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>60</v>
+    <row r="2" spans="1:30">
+      <c r="A2" t="s">
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -942,78 +913,78 @@
         <v>2</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T2">
         <v>8190</v>
       </c>
       <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
         <v>43</v>
-      </c>
-      <c r="V2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1025,50 +996,47 @@
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T3">
         <v>8190</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="X3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AA3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AB3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="AC3">
+        <v>12345</v>
       </c>
       <c r="AD3">
         <v>1433</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="AC3" r:id="rId1" xr:uid="{9FE663C1-715A-4B09-8C18-389AF07BCD23}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1094,13 +1062,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1108,45 +1076,45 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>49</v>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>52</v>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>53</v>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>54</v>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1385,6 +1353,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1394,31 +1371,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB2D2D62-C699-4EDC-AF7D-98AF39D526A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="f3541473-4e72-4c17-b1a6-32770bb766bd"/>
-    <ds:schemaRef ds:uri="31d963b9-1180-4647-93d7-d11aa08e2421"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26647929-8CAD-4F0D-BCEA-181322C9E19C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CED6C181-91EA-49A7-AEB7-D24AA30053A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E64AFBC-1728-4EB8-BDF7-49A26E4596D6}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCEFF42-59CC-4642-8FD8-C03CCD17FB20}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
